--- a/diccionario_de_datos.xlsx
+++ b/diccionario_de_datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luism\github\dataframe_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFE301EC-0CD8-4D32-9B98-8D02556E9458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE27FE1-713A-4BC3-B8AB-73FF9C6B5947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="911" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7959" uniqueCount="3231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7983" uniqueCount="3249">
   <si>
     <t>USMER</t>
   </si>
@@ -9164,9 +9164,6 @@
     <t>Significado</t>
   </si>
   <si>
-    <t>FECHA2:C21A_ACTUALIZACION</t>
-  </si>
-  <si>
     <t>AAAA-MM-DD</t>
   </si>
   <si>
@@ -9686,55 +9683,112 @@
     <t>Población con ingreso inferior a la línea de bienestar mínimo</t>
   </si>
   <si>
-    <t xml:space="preserve">poblacion </t>
-  </si>
-  <si>
     <t xml:space="preserve">int </t>
   </si>
   <si>
-    <t xml:space="preserve">total de polacion </t>
-  </si>
-  <si>
-    <t>Edad_quantile1</t>
-  </si>
-  <si>
     <t>Primer cuartil de la edad</t>
   </si>
   <si>
-    <t>Edad_median</t>
-  </si>
-  <si>
     <t>segundo cuartle de la edad</t>
   </si>
   <si>
-    <t>Edad_quantile2</t>
-  </si>
-  <si>
     <t>tercer cuartile de la edad</t>
   </si>
   <si>
-    <t>sexo1</t>
-  </si>
-  <si>
     <t>float64</t>
   </si>
   <si>
     <t xml:space="preserve">porcentaje de genero Masculino </t>
   </si>
   <si>
-    <t>sexo2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Porcentaje de genero Femenino </t>
   </si>
   <si>
-    <t>por_indigena</t>
-  </si>
-  <si>
     <t xml:space="preserve">float </t>
   </si>
   <si>
     <t xml:space="preserve">porcentaje de poblacion indigena </t>
+  </si>
+  <si>
+    <t>naci_19</t>
+  </si>
+  <si>
+    <t>tasa_nat</t>
+  </si>
+  <si>
+    <t>muer_19</t>
+  </si>
+  <si>
+    <t>tasa_mor</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>nacimientos en 2019</t>
+  </si>
+  <si>
+    <t>tasa de natalidad</t>
+  </si>
+  <si>
+    <t>muertes en 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa de Mortalidad </t>
+  </si>
+  <si>
+    <t>SEXO_1</t>
+  </si>
+  <si>
+    <t>SEXO_2</t>
+  </si>
+  <si>
+    <t>EDAD_median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POR_IDIGENA </t>
+  </si>
+  <si>
+    <t>EDAD_quantile2</t>
+  </si>
+  <si>
+    <t>EDAD_quantile1</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>pob</t>
+  </si>
+  <si>
+    <t>pob_h</t>
+  </si>
+  <si>
+    <t>pob_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">densidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area en kilometros cuadrados </t>
+  </si>
+  <si>
+    <t>poblacion total por municipio</t>
+  </si>
+  <si>
+    <t>poblacion de hombres  por municipio</t>
+  </si>
+  <si>
+    <t>poblacion de mujeres por municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">densidad de poblacion </t>
+  </si>
+  <si>
+    <t>FECHA_ACTUALIZACION</t>
   </si>
 </sst>
 </file>
@@ -9780,7 +9834,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9844,6 +9898,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9923,7 +9983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9999,10 +10059,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10283,10 +10344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D39EE-252A-476B-8EB4-05A99302B71C}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10309,981 +10370,1069 @@
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>3040</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>3041</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>3042</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>3043</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>3044</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>3045</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>3046</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>3047</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>3048</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>3049</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>3047</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>3050</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>3051</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>3047</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>3052</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>3053</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>3047</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>3054</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>3055</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>3047</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>3056</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>3057</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>3047</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>3058</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>3059</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>3047</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>3060</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>3061</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>3047</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>3062</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>3063</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>3044</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>3064</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>3065</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>3044</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>3066</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>3067</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>3044</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>3068</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>3070</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>3071</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>3072</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>3073</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>3074</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>3075</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>3076</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>3077</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>3078</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>3079</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>3080</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>3081</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>3082</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>3083</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>3084</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>3085</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>3086</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>3087</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>3088</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>3089</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>3090</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>3091</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>3092</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>3093</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>3094</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>3095</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>3096</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>3097</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>3098</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>3099</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>3100</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>3101</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>3102</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>3103</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>3104</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>3105</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>3106</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>3107</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>3108</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>3109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>3110</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>3111</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>3112</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>3113</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>3114</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>3115</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>3116</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C38" s="21" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
         <v>3117</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="B39" s="20" t="s">
         <v>3118</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="C39" s="21" t="s">
         <v>3119</v>
       </c>
-      <c r="C39" s="21" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
         <v>3120</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="B40" s="20" t="s">
         <v>3121</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="C40" s="21" t="s">
         <v>3122</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>3123</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>3124</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C41" s="21" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
         <v>3125</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="B42" s="25" t="s">
         <v>3126</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="C42" s="26" t="s">
         <v>3127</v>
       </c>
-      <c r="C42" s="26" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
         <v>3128</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="51" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+      <c r="B43" s="25" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C43" s="26" t="s">
         <v>3129</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>3127</v>
-      </c>
-      <c r="C43" s="26" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
         <v>3130</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="51" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="B44" s="25" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>3131</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>3127</v>
-      </c>
-      <c r="C44" s="26" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
         <v>3132</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+      <c r="B45" s="25" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C45" s="26" t="s">
         <v>3133</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>3127</v>
-      </c>
-      <c r="C45" s="26" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
         <v>3134</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="B46" s="25" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C46" s="26" t="s">
         <v>3135</v>
       </c>
-      <c r="B46" s="25" t="s">
-        <v>3127</v>
-      </c>
-      <c r="C46" s="26" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
         <v>3136</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="B47" s="25" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C47" s="26" t="s">
         <v>3137</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>3127</v>
-      </c>
-      <c r="C47" s="26" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
         <v>3138</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="B48" s="25" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C48" s="26" t="s">
         <v>3139</v>
       </c>
-      <c r="B48" s="25" t="s">
-        <v>3127</v>
-      </c>
-      <c r="C48" s="26" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
         <v>3140</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="B49" s="25" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C49" s="26" t="s">
         <v>3141</v>
       </c>
-      <c r="B49" s="25" t="s">
-        <v>3127</v>
-      </c>
-      <c r="C49" s="26" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
         <v>3142</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="B50" s="28" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C50" s="29" t="s">
         <v>3143</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>3127</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>3144</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B51" s="28" t="s">
         <v>3145</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="C51" s="27" t="s">
         <v>3146</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>3147</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B52" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="C52" s="30" t="s">
         <v>3149</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>3150</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B53" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="C53" s="30" t="s">
         <v>3152</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>3153</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C54" s="30" t="s">
         <v>3154</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>3155</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C55" s="30" t="s">
         <v>3156</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>3157</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C56" s="30" t="s">
         <v>3158</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>3159</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C57" s="30" t="s">
         <v>3160</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>3161</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C58" s="30" t="s">
         <v>3162</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>3163</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C59" s="30" t="s">
         <v>3164</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>3165</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C60" s="30" t="s">
         <v>3166</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>3167</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C61" s="30" t="s">
         <v>3168</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>3169</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C62" s="30" t="s">
         <v>3170</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>3171</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C63" s="30" t="s">
         <v>3172</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>3173</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C64" s="30" t="s">
         <v>3174</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>3175</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C65" s="30" t="s">
         <v>3176</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>3177</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C66" s="30" t="s">
         <v>3178</v>
-      </c>
-      <c r="B66" s="30" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>3179</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C67" s="30" t="s">
         <v>3180</v>
-      </c>
-      <c r="B67" s="30" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>3181</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C68" s="30" t="s">
         <v>3182</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>3183</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C69" s="30" t="s">
         <v>3184</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>3185</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C70" s="30" t="s">
         <v>3186</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>3187</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C71" s="30" t="s">
         <v>3188</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>3189</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C72" s="30" t="s">
         <v>3190</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>3191</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C73" s="30" t="s">
         <v>3192</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>3193</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C74" s="30" t="s">
         <v>3194</v>
-      </c>
-      <c r="B74" s="30" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>3195</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C75" s="30" t="s">
         <v>3196</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C75" s="30" t="s">
-        <v>3197</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C76" s="30" t="s">
         <v>3198</v>
-      </c>
-      <c r="B76" s="30" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>3199</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C77" s="30" t="s">
         <v>3200</v>
-      </c>
-      <c r="B77" s="30" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>3201</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C78" s="30" t="s">
         <v>3202</v>
-      </c>
-      <c r="B78" s="30" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>3203</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C79" s="30" t="s">
         <v>3204</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>3205</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C80" s="30" t="s">
         <v>3206</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C80" s="30" t="s">
-        <v>3207</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C81" s="30" t="s">
         <v>3208</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>3209</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C82" s="30" t="s">
         <v>3210</v>
-      </c>
-      <c r="B82" s="30" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C82" s="30" t="s">
-        <v>3211</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C83" s="30" t="s">
         <v>3212</v>
       </c>
-      <c r="B83" s="30" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C83" s="30" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="34" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B84" s="34" t="s">
         <v>3213</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
+      <c r="C84" s="34" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="34" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="34" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B86" s="34" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="34" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="31" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C88" s="31" t="s">
         <v>3214</v>
       </c>
-      <c r="B84" s="31" t="s">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="31" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C89" s="31" t="s">
         <v>3215</v>
       </c>
-      <c r="C84" s="31" t="s">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="31" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C90" s="31" t="s">
         <v>3216</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="32" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="32" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B91" s="32" t="s">
         <v>3217</v>
       </c>
-      <c r="B85" s="32" t="s">
-        <v>3047</v>
-      </c>
-      <c r="C85" s="32" t="s">
+      <c r="C91" s="32" t="s">
         <v>3218</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="32" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="32" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C92" s="32" t="s">
         <v>3219</v>
       </c>
-      <c r="B86" s="32" t="s">
-        <v>3047</v>
-      </c>
-      <c r="C86" s="32" t="s">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="33" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B93" s="33" t="s">
         <v>3220</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="32" t="s">
+      <c r="C93" s="33" t="s">
         <v>3221</v>
       </c>
-      <c r="B87" s="32" t="s">
-        <v>3047</v>
-      </c>
-      <c r="C87" s="32" t="s">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="33" t="s">
-        <v>3223</v>
-      </c>
-      <c r="B88" s="33" t="s">
-        <v>3224</v>
-      </c>
-      <c r="C88" s="33" t="s">
-        <v>3225</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="33" t="s">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="35" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B94" s="35" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="35" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B95" s="35" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="35" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B96" s="35" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="35" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B97" s="35" t="s">
         <v>3226</v>
       </c>
-      <c r="B89" s="33" t="s">
-        <v>3224</v>
-      </c>
-      <c r="C89" s="33" t="s">
-        <v>3227</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="34" t="s">
-        <v>3228</v>
-      </c>
-      <c r="B90" s="34" t="s">
-        <v>3229</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>3230</v>
+      <c r="C97" s="35" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="35" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B98" s="35" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>3247</v>
       </c>
     </row>
   </sheetData>

--- a/diccionario_de_datos.xlsx
+++ b/diccionario_de_datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luism\github\dataframe_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE27FE1-713A-4BC3-B8AB-73FF9C6B5947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216B4C54-15B6-43EF-AEC8-FB5408BFAE5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="911" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7983" uniqueCount="3249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8000" uniqueCount="3261">
   <si>
     <t>USMER</t>
   </si>
@@ -9789,6 +9789,42 @@
   </si>
   <si>
     <t>FECHA_ACTUALIZACION</t>
+  </si>
+  <si>
+    <t>codigo_Postal</t>
+  </si>
+  <si>
+    <t>coordenada_lateral</t>
+  </si>
+  <si>
+    <t>coordenada_longitudinal</t>
+  </si>
+  <si>
+    <t>altitud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos Covid orignales </t>
+  </si>
+  <si>
+    <t>IDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indices de pobreza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">natalidad y mortalidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuartiles de las edades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">porcentaje de hombres y mujeres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">demografia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubicacion </t>
   </si>
 </sst>
 </file>
@@ -9834,7 +9870,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9907,8 +9943,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -9979,11 +10021,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10064,6 +10119,82 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10344,1098 +10475,1264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D39EE-252A-476B-8EB4-05A99302B71C}">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" customWidth="1"/>
-    <col min="3" max="3" width="165.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" customWidth="1"/>
+    <col min="4" max="4" width="165.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>3037</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>3038</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>3039</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>3248</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>3040</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>3041</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="19" t="s">
         <v>3042</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="20" t="s">
         <v>3043</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="21" t="s">
         <v>3044</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="19" t="s">
         <v>3045</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="C4" s="20" t="s">
         <v>3046</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>3047</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="19" t="s">
         <v>3048</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C5" s="20" t="s">
         <v>3046</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>3049</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="19" t="s">
         <v>3050</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="20" t="s">
         <v>3046</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="21" t="s">
         <v>3051</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="19" t="s">
         <v>3052</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="C7" s="20" t="s">
         <v>3046</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="21" t="s">
         <v>3053</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="19" t="s">
         <v>3054</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="C8" s="20" t="s">
         <v>3046</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="D8" s="21" t="s">
         <v>3055</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="19" t="s">
         <v>3056</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>3046</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="21" t="s">
         <v>3057</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="19" t="s">
         <v>3058</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="C10" s="20" t="s">
         <v>3046</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="D10" s="21" t="s">
         <v>3059</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="19" t="s">
         <v>3060</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>3046</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="D11" s="21" t="s">
         <v>3061</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="19" t="s">
         <v>3062</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>3043</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="D12" s="21" t="s">
         <v>3063</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="19" t="s">
         <v>3064</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>3043</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="21" t="s">
         <v>3065</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="19" t="s">
         <v>3066</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="C14" s="20" t="s">
         <v>3043</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="D14" s="21" t="s">
         <v>3067</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="19" t="s">
         <v>3068</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="C15" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="D15" s="21" t="s">
         <v>3070</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="19" t="s">
         <v>3071</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="C16" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="21" t="s">
         <v>3072</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="19" t="s">
         <v>3073</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="C17" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="D17" s="21" t="s">
         <v>3074</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="19" t="s">
         <v>3075</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="D18" s="21" t="s">
         <v>3076</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="19" t="s">
         <v>3077</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="C19" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="21" t="s">
         <v>3078</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="19" t="s">
         <v>3079</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="C20" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="D20" s="21" t="s">
         <v>3080</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="19" t="s">
         <v>3081</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="C21" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="D21" s="21" t="s">
         <v>3082</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="19" t="s">
         <v>3083</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="C22" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="D22" s="21" t="s">
         <v>3084</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="19" t="s">
         <v>3085</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="C23" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="D23" s="21" t="s">
         <v>3086</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="19" t="s">
         <v>3087</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="C24" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="D24" s="21" t="s">
         <v>3088</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="19" t="s">
         <v>3089</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="C25" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="D25" s="21" t="s">
         <v>3090</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="19" t="s">
         <v>3091</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="C26" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="D26" s="21" t="s">
         <v>3092</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="19" t="s">
         <v>3093</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="D27" s="21" t="s">
         <v>3094</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="19" t="s">
         <v>3095</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="C28" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="D28" s="21" t="s">
         <v>3096</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="19" t="s">
         <v>3097</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="C29" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="D29" s="21" t="s">
         <v>3098</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="19" t="s">
         <v>3099</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="C30" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="D30" s="21" t="s">
         <v>3100</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="19" t="s">
         <v>3101</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="C31" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="D31" s="21" t="s">
         <v>3102</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="19" t="s">
         <v>3103</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="C32" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="D32" s="21" t="s">
         <v>3104</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="19" t="s">
         <v>3105</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="C33" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="D33" s="21" t="s">
         <v>3106</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="19" t="s">
         <v>3107</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="C34" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="D34" s="21" t="s">
         <v>3108</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="19" t="s">
         <v>3109</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="C35" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="D35" s="21" t="s">
         <v>3110</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="19" t="s">
         <v>3111</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="D36" s="21" t="s">
         <v>3112</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="19" t="s">
         <v>3113</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="C37" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="D37" s="21" t="s">
         <v>3114</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="19" t="s">
         <v>3115</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="C38" s="20" t="s">
         <v>3069</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="D38" s="21" t="s">
         <v>3116</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="19" t="s">
         <v>3117</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="C39" s="20" t="s">
         <v>3118</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="D39" s="21" t="s">
         <v>3119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="19" t="s">
         <v>3120</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="C40" s="20" t="s">
         <v>3121</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="D40" s="21" t="s">
         <v>3122</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="22" t="s">
         <v>3123</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="C41" s="23" t="s">
         <v>3069</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="D41" s="21" t="s">
         <v>3124</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="40" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B42" s="24" t="s">
         <v>3125</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="C42" s="25" t="s">
         <v>3126</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="D42" s="26" t="s">
         <v>3127</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="B43" s="24" t="s">
         <v>3128</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="C43" s="25" t="s">
         <v>3126</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="D43" s="26" t="s">
         <v>3129</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+      <c r="B44" s="24" t="s">
         <v>3130</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="C44" s="25" t="s">
         <v>3126</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="D44" s="26" t="s">
         <v>3131</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="24" t="s">
         <v>3132</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="C45" s="25" t="s">
         <v>3126</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="D45" s="26" t="s">
         <v>3133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="B46" s="24" t="s">
         <v>3134</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="C46" s="25" t="s">
         <v>3126</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="D46" s="26" t="s">
         <v>3135</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+      <c r="B47" s="24" t="s">
         <v>3136</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="C47" s="25" t="s">
         <v>3126</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="D47" s="26" t="s">
         <v>3137</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
+      <c r="B48" s="24" t="s">
         <v>3138</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="C48" s="25" t="s">
         <v>3126</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="D48" s="26" t="s">
         <v>3139</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="24" t="s">
         <v>3140</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="C49" s="25" t="s">
         <v>3126</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="D49" s="26" t="s">
         <v>3141</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="43" t="s">
         <v>3142</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="27" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C50" s="28" t="s">
         <v>3126</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="D50" s="29" t="s">
         <v>3143</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
+      <c r="B51" s="27" t="s">
         <v>3144</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="C51" s="28" t="s">
         <v>3145</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="D51" s="27" t="s">
         <v>3146</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="45" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B52" s="30" t="s">
         <v>3147</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="C52" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="D52" s="30" t="s">
         <v>3149</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="46"/>
+      <c r="B53" s="30" t="s">
         <v>3150</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="C53" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="D53" s="30" t="s">
         <v>3152</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="46"/>
+      <c r="B54" s="30" t="s">
         <v>3153</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="C54" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="D54" s="30" t="s">
         <v>3154</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="46"/>
+      <c r="B55" s="30" t="s">
         <v>3155</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="C55" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="D55" s="30" t="s">
         <v>3156</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="46"/>
+      <c r="B56" s="30" t="s">
         <v>3157</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="C56" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="D56" s="30" t="s">
         <v>3158</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="46"/>
+      <c r="B57" s="30" t="s">
         <v>3159</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="C57" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="D57" s="30" t="s">
         <v>3160</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="46"/>
+      <c r="B58" s="30" t="s">
         <v>3161</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="C58" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="D58" s="30" t="s">
         <v>3162</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="46"/>
+      <c r="B59" s="30" t="s">
         <v>3163</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="C59" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="D59" s="30" t="s">
         <v>3164</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="46"/>
+      <c r="B60" s="30" t="s">
         <v>3165</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="C60" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="D60" s="30" t="s">
         <v>3166</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="46"/>
+      <c r="B61" s="30" t="s">
         <v>3167</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="C61" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="D61" s="30" t="s">
         <v>3168</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="46"/>
+      <c r="B62" s="30" t="s">
         <v>3169</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="C62" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="D62" s="30" t="s">
         <v>3170</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="46"/>
+      <c r="B63" s="30" t="s">
         <v>3171</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="C63" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="D63" s="30" t="s">
         <v>3172</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="46"/>
+      <c r="B64" s="30" t="s">
         <v>3173</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="C64" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="D64" s="30" t="s">
         <v>3174</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="46"/>
+      <c r="B65" s="30" t="s">
         <v>3175</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="C65" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="D65" s="30" t="s">
         <v>3176</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="46"/>
+      <c r="B66" s="30" t="s">
         <v>3177</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="C66" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="D66" s="30" t="s">
         <v>3178</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="30" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="46"/>
+      <c r="B67" s="30" t="s">
         <v>3179</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="C67" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="D67" s="30" t="s">
         <v>3180</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="30" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="46"/>
+      <c r="B68" s="30" t="s">
         <v>3181</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="C68" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="D68" s="30" t="s">
         <v>3182</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="30" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="46"/>
+      <c r="B69" s="30" t="s">
         <v>3183</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="C69" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="D69" s="30" t="s">
         <v>3184</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="30" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="46"/>
+      <c r="B70" s="30" t="s">
         <v>3185</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="C70" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="D70" s="30" t="s">
         <v>3186</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="30" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="46"/>
+      <c r="B71" s="30" t="s">
         <v>3187</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="C71" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="D71" s="30" t="s">
         <v>3188</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="30" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="46"/>
+      <c r="B72" s="30" t="s">
         <v>3189</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="C72" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="D72" s="30" t="s">
         <v>3190</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="30" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="46"/>
+      <c r="B73" s="30" t="s">
         <v>3191</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="C73" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="D73" s="30" t="s">
         <v>3192</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="30" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="46"/>
+      <c r="B74" s="30" t="s">
         <v>3193</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="C74" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="D74" s="30" t="s">
         <v>3194</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="30" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="46"/>
+      <c r="B75" s="30" t="s">
         <v>3195</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="C75" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="D75" s="30" t="s">
         <v>3196</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="30" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="46"/>
+      <c r="B76" s="30" t="s">
         <v>3197</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="C76" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="D76" s="30" t="s">
         <v>3198</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="30" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="46"/>
+      <c r="B77" s="30" t="s">
         <v>3199</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="C77" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="D77" s="30" t="s">
         <v>3200</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="46"/>
+      <c r="B78" s="30" t="s">
         <v>3201</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="C78" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="D78" s="30" t="s">
         <v>3202</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="30" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="46"/>
+      <c r="B79" s="30" t="s">
         <v>3203</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="C79" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="D79" s="30" t="s">
         <v>3204</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="30" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="46"/>
+      <c r="B80" s="30" t="s">
         <v>3205</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="C80" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="D80" s="30" t="s">
         <v>3206</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="30" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="46"/>
+      <c r="B81" s="30" t="s">
         <v>3207</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="C81" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="D81" s="30" t="s">
         <v>3208</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="46"/>
+      <c r="B82" s="30" t="s">
         <v>3209</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="C82" s="30" t="s">
         <v>3148</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="D82" s="30" t="s">
         <v>3210</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="30" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="47"/>
+      <c r="B83" s="30" t="s">
         <v>3211</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="C83" s="30" t="s">
         <v>3151</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="D83" s="30" t="s">
         <v>3212</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="34" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="48" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B84" s="34" t="s">
         <v>3222</v>
       </c>
-      <c r="B84" s="34" t="s">
+      <c r="C84" s="34" t="s">
         <v>3213</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="D84" s="34" t="s">
         <v>3228</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="34" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="49"/>
+      <c r="B85" s="34" t="s">
         <v>3223</v>
       </c>
-      <c r="B85" s="34" t="s">
+      <c r="C85" s="34" t="s">
         <v>3227</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="D85" s="34" t="s">
         <v>3229</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="34" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="49"/>
+      <c r="B86" s="34" t="s">
         <v>3224</v>
       </c>
-      <c r="B86" s="34" t="s">
+      <c r="C86" s="34" t="s">
         <v>3226</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="D86" s="34" t="s">
         <v>3230</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="34" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="50"/>
+      <c r="B87" s="34" t="s">
         <v>3225</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="C87" s="34" t="s">
         <v>3227</v>
       </c>
-      <c r="C87" s="34" t="s">
+      <c r="D87" s="34" t="s">
         <v>3231</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="51" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B88" s="31" t="s">
         <v>3237</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="C88" s="31" t="s">
         <v>3046</v>
       </c>
-      <c r="C88" s="31" t="s">
+      <c r="D88" s="31" t="s">
         <v>3214</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="52"/>
+      <c r="B89" s="31" t="s">
         <v>3234</v>
       </c>
-      <c r="B89" s="31" t="s">
+      <c r="C89" s="31" t="s">
         <v>3046</v>
       </c>
-      <c r="C89" s="31" t="s">
+      <c r="D89" s="31" t="s">
         <v>3215</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="53"/>
+      <c r="B90" s="31" t="s">
         <v>3236</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="C90" s="31" t="s">
         <v>3046</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="D90" s="31" t="s">
         <v>3216</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="32" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="54" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B91" s="32" t="s">
         <v>3232</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="C91" s="32" t="s">
         <v>3217</v>
       </c>
-      <c r="C91" s="32" t="s">
+      <c r="D91" s="32" t="s">
         <v>3218</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="32" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="55"/>
+      <c r="B92" s="32" t="s">
         <v>3233</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="C92" s="32" t="s">
         <v>3217</v>
       </c>
-      <c r="C92" s="32" t="s">
+      <c r="D92" s="32" t="s">
         <v>3219</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="33" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="33"/>
+      <c r="B93" s="33" t="s">
         <v>3235</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="C93" s="33" t="s">
         <v>3220</v>
       </c>
-      <c r="C93" s="33" t="s">
+      <c r="D93" s="33" t="s">
         <v>3221</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="35" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="56" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B94" s="35" t="s">
         <v>3238</v>
       </c>
-      <c r="B94" s="35" t="s">
+      <c r="C94" s="35" t="s">
         <v>3126</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="D94" s="35" t="s">
         <v>3243</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="35" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="57"/>
+      <c r="B95" s="35" t="s">
         <v>3239</v>
       </c>
-      <c r="B95" s="35" t="s">
+      <c r="C95" s="35" t="s">
         <v>3213</v>
       </c>
-      <c r="C95" s="35" t="s">
+      <c r="D95" s="35" t="s">
         <v>3244</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="35" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="57"/>
+      <c r="B96" s="35" t="s">
         <v>3240</v>
       </c>
-      <c r="B96" s="35" t="s">
+      <c r="C96" s="35" t="s">
         <v>3213</v>
       </c>
-      <c r="C96" s="35" t="s">
+      <c r="D96" s="35" t="s">
         <v>3245</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="35" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="57"/>
+      <c r="B97" s="35" t="s">
         <v>3241</v>
       </c>
-      <c r="B97" s="35" t="s">
+      <c r="C97" s="35" t="s">
         <v>3226</v>
       </c>
-      <c r="C97" s="35" t="s">
+      <c r="D97" s="35" t="s">
         <v>3246</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="35" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="58"/>
+      <c r="B98" s="35" t="s">
         <v>3242</v>
       </c>
-      <c r="B98" s="35" t="s">
+      <c r="C98" s="35" t="s">
         <v>3126</v>
       </c>
-      <c r="C98" s="35" t="s">
+      <c r="D98" s="35" t="s">
         <v>3247</v>
       </c>
     </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="59" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B99" s="36" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C99" s="36" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D99" s="36"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="60"/>
+      <c r="B100" s="36" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>3227</v>
+      </c>
+      <c r="D100" s="36"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="60"/>
+      <c r="B101" s="36" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C101" s="36" t="s">
+        <v>3227</v>
+      </c>
+      <c r="D101" s="36"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="61"/>
+      <c r="B102" s="36" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>3069</v>
+      </c>
+      <c r="D102" s="36"/>
+    </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A88:A90"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
